--- a/datasets/Movimiento.xlsx
+++ b/datasets/Movimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Mili\Python\Modulo_2\Proyecto\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10189CCE-63AD-4A4F-A011-75746F7485B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E473800-A5B7-41D2-88DF-0F0EE1311D5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$Z$590</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$V$590</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4352" uniqueCount="1330">
   <si>
     <t>Fecha</t>
   </si>
@@ -4412,17 +4412,17 @@
   <dimension ref="A1:V1128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.375" style="25" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="24.75" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
@@ -12533,6 +12533,9 @@
       <c r="A191" s="25">
         <v>45324</v>
       </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
       <c r="F191" s="1" t="s">
         <v>293</v>
       </c>
@@ -15839,6 +15842,9 @@
       <c r="A258" s="25">
         <v>45331</v>
       </c>
+      <c r="C258" t="s">
+        <v>63</v>
+      </c>
       <c r="H258" s="1">
         <v>38</v>
       </c>
@@ -17194,6 +17200,9 @@
       <c r="A284" s="25">
         <v>45342</v>
       </c>
+      <c r="C284" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="H284" s="1">
         <v>38</v>
       </c>
@@ -19064,6 +19073,9 @@
       <c r="A322" s="25">
         <v>45352</v>
       </c>
+      <c r="C322" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="H322" s="1">
         <v>11</v>
       </c>
@@ -21137,6 +21149,9 @@
     <row r="362" spans="1:22" ht="15.75" customHeight="1">
       <c r="A362" s="25">
         <v>45356</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="H362" s="1">
         <v>38</v>
@@ -23327,6 +23342,9 @@
       <c r="A407" s="25">
         <v>45358</v>
       </c>
+      <c r="C407" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="H407" s="1">
         <v>38</v>
       </c>
@@ -23880,6 +23898,9 @@
       <c r="A418" s="25">
         <v>45362</v>
       </c>
+      <c r="C418" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="H418" s="1">
         <v>120</v>
       </c>
@@ -31402,7 +31423,9 @@
         <v>45392</v>
       </c>
       <c r="B580" s="15"/>
-      <c r="C580" s="15"/>
+      <c r="C580" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D580" s="15"/>
       <c r="E580" s="15"/>
       <c r="F580" s="15"/>
@@ -38349,7 +38372,7 @@
       <c r="V1128" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z590" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V590" xr:uid="{63542D31-D548-414E-91A5-E8E586412C6E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
